--- a/buglist.xlsx
+++ b/buglist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\html\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E772D-1BC2-4EE7-BC21-5EBB16579A04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BE97FA-5570-457F-8A33-169725422380}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>还有标注但是已经提示是最后一步了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,13 +49,44 @@
   </si>
   <si>
     <t>取消截图之后，下次截图会保留上次的截图信息</t>
+  </si>
+  <si>
+    <t>1 视频播放是逐帧播放，我们现在是逐秒播放，秒对客户来说单位太大了，1秒=24帧（有的不一样），在他们这个行业逐秒播放对他们没有意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个好做，参考：https://stackoverflow.com/questions/20336955/how-to-step-one-frame-forward-and-one-frame-backward-in-video-playback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多视频连播，可以多个视频合并起来逐帧播放，他们现在一个视
+频几秒到几分钟，视频普通大小为几个G，视频非常大，以前那种截图方式，可能有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持键盘左右键逐帧播放，即：按左键向后退一帧，按右键向前
+进一帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rovide the framerate of the video file (e.g. 30fps)
+ and advance the time based on that math. Something like player.currentTime(player.currentTime() + 1/30)
+插件：https://github.com/erasche/videojs-framebyframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧转换为canvas或者image的例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://snipplr.com/view/64256/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +99,21 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,17 +134,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,50 +426,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.77734375" customWidth="1"/>
+    <col min="1" max="1" width="57.77734375" customWidth="1"/>
+    <col min="3" max="3" width="77.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{27CC31F9-24A9-4C5C-A690-EB40004FE4E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>